--- a/database - circanual/Parent_Reproduction_By_BirthMonth.xlsx
+++ b/database - circanual/Parent_Reproduction_By_BirthMonth.xlsx
@@ -99,16 +99,49 @@
     <t xml:space="preserve">LL</t>
   </si>
   <si>
-    <t xml:space="preserve">1982-1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1987-1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1992-1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997-2001</t>
+    <t xml:space="preserve">PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1991-1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996-2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995-1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM2</t>
   </si>
   <si>
     <t xml:space="preserve">2002-2006</t>
@@ -118,39 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">2012-2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1995-1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM2</t>
   </si>
 </sst>
 </file>
@@ -1054,249 +1054,255 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14"/>
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
       <c r="G14" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14"/>
+        <v>6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M14" t="s">
         <v>27</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s">
         <v>27</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8</v>
+      </c>
+      <c r="H16" t="n">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16" t="n">
-        <v>16</v>
-      </c>
       <c r="I16" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K16" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L16" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="M16" t="s">
         <v>27</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17"/>
+        <v>9</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M17" t="s">
         <v>27</v>
       </c>
       <c r="N17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="D18" t="n">
-        <v>11</v>
-      </c>
       <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
         <v>13</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8</v>
+      </c>
+      <c r="K18" t="n">
         <v>14</v>
       </c>
-      <c r="G18" t="n">
-        <v>5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11</v>
-      </c>
       <c r="L18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M18" t="s">
         <v>27</v>
       </c>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
         <v>15</v>
       </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
@@ -1305,179 +1311,179 @@
         <v>27</v>
       </c>
       <c r="N19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>23</v>
+      </c>
+      <c r="G20" t="n">
+        <v>22</v>
+      </c>
+      <c r="H20" t="n">
         <v>13</v>
       </c>
-      <c r="E20" t="n">
-        <v>8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>13</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K20" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M20" t="s">
         <v>27</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
+      <c r="A21"/>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E21"/>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
+        <v>10</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>14</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" t="n">
         <v>12</v>
       </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
         <v>16</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4</v>
-      </c>
-      <c r="M21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6</v>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>14</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4</v>
-      </c>
-      <c r="M22" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>14</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" t="n">
         <v>11</v>
       </c>
-      <c r="C23" t="n">
-        <v>5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>11</v>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
-      </c>
-      <c r="G23" t="n">
-        <v>12</v>
-      </c>
       <c r="H23" t="n">
         <v>8</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1485,87 +1491,85 @@
         <v>4</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M24" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F25"/>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1573,127 +1577,129 @@
         <v>10</v>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
-      </c>
-      <c r="F26"/>
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
         <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27"/>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28"/>
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1701,173 +1707,169 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M29" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="K30"/>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>11</v>
-      </c>
-      <c r="K31"/>
+        <v>5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8</v>
+      </c>
       <c r="L31" t="n">
         <v>2</v>
       </c>
       <c r="M31" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L32" t="n">
         <v>2</v>
       </c>
       <c r="M32" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -1875,90 +1877,90 @@
         <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G33"/>
       <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33" t="n">
-        <v>3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>7</v>
-      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D34"/>
       <c r="E34" t="n">
         <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
-      </c>
-      <c r="G34"/>
-      <c r="H34"/>
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34"/>
-      <c r="L34" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34"/>
       <c r="M34" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
-      </c>
-      <c r="D35"/>
+        <v>16</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
@@ -1966,253 +1968,251 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
         <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
-      </c>
-      <c r="L35"/>
+        <v>6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6</v>
+      </c>
       <c r="M35" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
+        <v>10</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>15</v>
+      </c>
+      <c r="E37" t="n">
         <v>20</v>
       </c>
-      <c r="B37" t="n">
-        <v>4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>10</v>
-      </c>
-      <c r="E37" t="n">
-        <v>24</v>
-      </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H37" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K37" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L37" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K38"/>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39"/>
       <c r="H39" t="n">
-        <v>6</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39"/>
       <c r="J39" t="n">
         <v>4</v>
       </c>
-      <c r="K39" t="n">
-        <v>3</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4</v>
-      </c>
+      <c r="K39"/>
+      <c r="L39"/>
       <c r="M39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" t="s">
         <v>37</v>
-      </c>
-      <c r="N39" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40"/>
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40"/>
+        <v>5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
       <c r="J40" t="n">
-        <v>4</v>
-      </c>
-      <c r="K40"/>
-      <c r="L40"/>
+        <v>9</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8</v>
+      </c>
       <c r="M40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" t="s">
         <v>38</v>
-      </c>
-      <c r="N40" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B41"/>
       <c r="C41" t="n">
-        <v>7</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D41"/>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F41" t="n">
         <v>2</v>
@@ -2221,94 +2221,96 @@
         <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
-      </c>
-      <c r="B42"/>
+        <v>7</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
       <c r="C42" t="n">
-        <v>4</v>
-      </c>
-      <c r="D42"/>
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>3</v>
       </c>
       <c r="L42" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E43"/>
       <c r="F43" t="n">
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
@@ -2317,52 +2319,50 @@
         <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44"/>
+        <v>11</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9</v>
+      </c>
       <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M44" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N44" t="s">
         <v>43</v>
@@ -2370,31 +2370,43 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
-      </c>
-      <c r="B45"/>
-      <c r="C45"/>
+        <v>7</v>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
       <c r="D45" t="n">
-        <v>4</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
+        <v>12</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>12</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M45" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N45" t="s">
         <v>44</v>
@@ -2402,166 +2414,44 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
-      </c>
-      <c r="C46"/>
+        <v>6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
       <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" t="n">
         <v>11</v>
       </c>
-      <c r="E46" t="n">
-        <v>9</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46"/>
-      <c r="H46"/>
       <c r="I46" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J46" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M46" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" t="s">
         <v>45</v>
-      </c>
-      <c r="N46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>8</v>
-      </c>
-      <c r="B47" t="n">
-        <v>10</v>
-      </c>
-      <c r="C47" t="n">
-        <v>7</v>
-      </c>
-      <c r="D47" t="n">
-        <v>10</v>
-      </c>
-      <c r="E47" t="n">
-        <v>13</v>
-      </c>
-      <c r="F47" t="n">
-        <v>13</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4</v>
-      </c>
-      <c r="K47" t="n">
-        <v>8</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5</v>
-      </c>
-      <c r="M47" t="s">
-        <v>45</v>
-      </c>
-      <c r="N47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>8</v>
-      </c>
-      <c r="B48" t="n">
-        <v>8</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4</v>
-      </c>
-      <c r="D48" t="n">
-        <v>7</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="n">
-        <v>3</v>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>5</v>
-      </c>
-      <c r="L48" t="n">
-        <v>8</v>
-      </c>
-      <c r="M48" t="s">
-        <v>45</v>
-      </c>
-      <c r="N48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>4</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" t="n">
-        <v>6</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3</v>
-      </c>
-      <c r="M49" t="s">
-        <v>45</v>
-      </c>
-      <c r="N49" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3147,489 +3037,493 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14"/>
+      <c r="A14" t="n">
+        <v>9</v>
+      </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14"/>
+        <v>12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
       </c>
       <c r="M14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
         <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="K16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
         <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>13</v>
-      </c>
-      <c r="I17" t="n">
-        <v>25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I17"/>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L17" t="s">
         <v>27</v>
       </c>
       <c r="M17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
         <v>15</v>
       </c>
-      <c r="D18" t="n">
-        <v>9</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13</v>
-      </c>
       <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12</v>
+      </c>
+      <c r="H18" t="n">
         <v>15</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
       </c>
       <c r="I18"/>
       <c r="J18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L18" t="s">
         <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>18</v>
-      </c>
-      <c r="I19"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>19</v>
+      </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L19" t="s">
         <v>27</v>
       </c>
       <c r="M19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
         <v>27</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B21"/>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>17</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="n">
-        <v>14</v>
-      </c>
-      <c r="F21" t="n">
-        <v>12</v>
-      </c>
-      <c r="G21" t="n">
-        <v>16</v>
-      </c>
-      <c r="H21" t="n">
-        <v>16</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" t="s">
-        <v>35</v>
-      </c>
       <c r="N21" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22"/>
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
       <c r="C22" t="n">
-        <v>7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D22"/>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I22" t="n">
         <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23"/>
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
       <c r="E23" t="n">
         <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
@@ -3638,25 +3532,25 @@
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
@@ -3664,90 +3558,86 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -3755,36 +3645,38 @@
         <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F28"/>
       <c r="G28" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
-      </c>
-      <c r="I28"/>
-      <c r="J28"/>
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N28" t="n">
         <v>2</v>
@@ -3792,68 +3684,70 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7</v>
-      </c>
-      <c r="B29" t="n">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B29"/>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F29"/>
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -3862,39 +3756,39 @@
         <v>8</v>
       </c>
       <c r="K30" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
         <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>5</v>
@@ -3903,454 +3797,448 @@
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L31" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H32" t="n">
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J32"/>
       <c r="K32" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32"/>
+        <v>26</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>5</v>
-      </c>
+      <c r="A33"/>
       <c r="B33" t="n">
-        <v>5</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C33"/>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F33"/>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6</v>
-      </c>
-      <c r="J33"/>
+        <v>3</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33" t="n">
+        <v>6</v>
+      </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N33"/>
     </row>
     <row r="34">
-      <c r="A34"/>
+      <c r="A34" t="n">
+        <v>2</v>
+      </c>
       <c r="B34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34"/>
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-      <c r="I34"/>
+        <v>4</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34" t="n">
+        <v>4</v>
+      </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>30</v>
-      </c>
-      <c r="N34"/>
+        <v>31</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
-      </c>
-      <c r="H35"/>
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L35" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
+        <v>11</v>
+      </c>
+      <c r="E36" t="n">
         <v>17</v>
       </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
+        <v>17</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7</v>
+      </c>
+      <c r="K36" t="n">
         <v>12</v>
       </c>
-      <c r="J36" t="n">
-        <v>4</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5</v>
-      </c>
       <c r="L36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N36" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E37" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H37" t="n">
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K38" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
-      </c>
-      <c r="C39" t="n">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C39"/>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" t="s">
         <v>37</v>
       </c>
-      <c r="M39" t="s">
-        <v>35</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2</v>
-      </c>
+      <c r="N39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40"/>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40"/>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" t="s">
         <v>38</v>
-      </c>
-      <c r="M40" t="s">
-        <v>39</v>
       </c>
       <c r="N40"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B41"/>
       <c r="C41" t="n">
-        <v>6</v>
-      </c>
-      <c r="D41"/>
+        <v>7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6</v>
+      </c>
       <c r="E41" t="n">
         <v>8</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N41"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
-      </c>
-      <c r="B42"/>
+        <v>2</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F42"/>
       <c r="G42" t="n">
         <v>1</v>
       </c>
@@ -4364,68 +4252,72 @@
         <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M42" t="s">
-        <v>41</v>
-      </c>
-      <c r="N42"/>
+        <v>40</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
       <c r="D43" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" t="n">
-        <v>5</v>
-      </c>
-      <c r="F43"/>
+        <v>4</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
-      </c>
-      <c r="B44"/>
-      <c r="C44"/>
+        <v>8</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8</v>
+      </c>
       <c r="D44" t="n">
-        <v>4</v>
-      </c>
-      <c r="E44"/>
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7</v>
+      </c>
       <c r="F44" t="n">
         <v>2</v>
       </c>
@@ -4433,229 +4325,113 @@
         <v>4</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L44" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M44" t="s">
         <v>43</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7</v>
+      </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
-      </c>
-      <c r="K45"/>
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>7</v>
+      </c>
       <c r="L45" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M45" t="s">
         <v>44</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7</v>
-      </c>
-      <c r="B46"/>
+        <v>10</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I46" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J46" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
         <v>3</v>
       </c>
       <c r="L46" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" t="s">
         <v>45</v>
       </c>
-      <c r="M46" t="s">
-        <v>40</v>
-      </c>
       <c r="N46" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>8</v>
-      </c>
-      <c r="B47" t="n">
-        <v>5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>8</v>
-      </c>
-      <c r="D47" t="n">
-        <v>6</v>
-      </c>
-      <c r="E47" t="n">
-        <v>9</v>
-      </c>
-      <c r="F47" t="n">
-        <v>13</v>
-      </c>
-      <c r="G47" t="n">
-        <v>13</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2</v>
-      </c>
-      <c r="K47" t="n">
-        <v>6</v>
-      </c>
-      <c r="L47" t="s">
-        <v>45</v>
-      </c>
-      <c r="M47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3</v>
-      </c>
-      <c r="C48" t="n">
-        <v>6</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6</v>
-      </c>
-      <c r="F48" t="n">
-        <v>6</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5</v>
-      </c>
-      <c r="K48" t="n">
-        <v>6</v>
-      </c>
-      <c r="L48" t="s">
-        <v>45</v>
-      </c>
-      <c r="M48" t="s">
-        <v>42</v>
-      </c>
-      <c r="N48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>8</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49" t="n">
-        <v>3</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
-        <v>45</v>
-      </c>
-      <c r="M49" t="s">
-        <v>43</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
